--- a/biology/Botanique/Morus_mongolica/Morus_mongolica.xlsx
+++ b/biology/Botanique/Morus_mongolica/Morus_mongolica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morus mongolica est une espèce de plantes dicotylédones de la famille des Moraceae, originaire d'Extrême-Orient. Ce sont des arbres dioïques, de taille moyenne, à feuilles caduques.
 </t>
@@ -511,15 +523,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Morus mongolica est un arbuste ou petit arbre dioïque à l'écorce brun grisâtre, sillonnée. Les vieilles branches sont gris noirâtre et les rameaux rouge foncé. Les bourgeons d'hiver sont brun grisâtre, ovoïdes.
-Les feuilles présentent des stipules de  2,5 à 3,5 cm. de long, et un limbe de consistance papyracée, glabre, de forme elliptique-ovale, à base cordée, de  8 à 15 cm de long sur 5 à 8 cm de  large. Les bords du limbe sont serrés avec certaines dents doublement dentées,  chaque dent présentant un apiculum ou soir subulé et dentelures apicales à longues épines. Lapex du limbe est brièvement acuminé[2].
+Les feuilles présentent des stipules de  2,5 à 3,5 cm. de long, et un limbe de consistance papyracée, glabre, de forme elliptique-ovale, à base cordée, de  8 à 15 cm de long sur 5 à 8 cm de  large. Les bords du limbe sont serrés avec certaines dents doublement dentées,  chaque dent présentant un apiculum ou soir subulé et dentelures apicales à longues épines. Lapex du limbe est brièvement acuminé.
 Les chatons mâles ont environ 3 cm de long. Les inflorescences femelles, cylindriques,  ont de 1 à 1,5 cm de long est sont portées par un pédoncule de 1 à 1,5 cm de long.
-Les fleurs mâles présentent un calice aux lobes jaune foncé, à marge pubescente et des anthères biloculaires à  déhiscence longitudinale. Les fleurs femelles ont un calice aux lobes glabres ou légèrement pubescents du côté adaxial, un style long et un stigmate bifide, avec une protubérance semblable à un mamelon[2].
-Le fruit est un syncarpe rouge à violet à maturité, d'environ 1,5 cm de long. La floraison a lieu en mars-avril et la fructification en avril-mai[2].
-Cytologie
-Morus mongolica est une espèce diploïde (2n=2x=28 chromosomes)[3].
+Les fleurs mâles présentent un calice aux lobes jaune foncé, à marge pubescente et des anthères biloculaires à  déhiscence longitudinale. Les fleurs femelles ont un calice aux lobes glabres ou légèrement pubescents du côté adaxial, un style long et un stigmate bifide, avec une protubérance semblable à un mamelon.
+Le fruit est un syncarpe rouge à violet à maturité, d'environ 1,5 cm de long. La floraison a lieu en mars-avril et la fructification en avril-mai.
 </t>
         </is>
       </c>
@@ -545,13 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution et habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'aire de répartition originelle de Morus mongolica s'étend en Chine, au Japon, en Corée et en Mongolie. En Chine l'espèce se rencontre dans les provinces de Anhui (Nord), Guangxi (Nord-Est), Guizhou, Hebei, Heilongjiang, Henan, Hubei, Hunan (Nord-Ouest), Jiangsu, Jilin, Liaoning, Mongolie-Intérieure, Shaanxi, Shandong, Shanxi, Sichuan, Tibet (Sud-Est), Yunnan)[2].
-Cette espèce croît sur les pentes montagneuses, dans des forêts situées entre 500 et 3500 mètres d'altitude[2].
+          <t>Cytologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Morus mongolica est une espèce diploïde (2n=2x=28 chromosomes).
 </t>
         </is>
       </c>
@@ -577,24 +594,130 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition originelle de Morus mongolica s'étend en Chine, au Japon, en Corée et en Mongolie. En Chine l'espèce se rencontre dans les provinces de Anhui (Nord), Guangxi (Nord-Est), Guizhou, Hebei, Heilongjiang, Henan, Hubei, Hunan (Nord-Ouest), Jiangsu, Jilin, Liaoning, Mongolie-Intérieure, Shaanxi, Shandong, Shanxi, Sichuan, Tibet (Sud-Est), Yunnan).
+Cette espèce croît sur les pentes montagneuses, dans des forêts situées entre 500 et 3500 mètres d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Morus_mongolica</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Morus_mongolica</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Morus mongolica a été initialement décrite en 1873 par le botaniste français Édouard Bureau comme une variété de Morus alba sous le nom de « Morus alba var. mongolica » et publiée dans Prodromus systematis naturalis regni vegetabilis en 1873, puis reconnue en tant qu'espèce distincte par le botaniste autrichien Camillo Karl Schneider et publiée en 1916 dans Plantae Wilsonianae 3(2): 296 [31 Aug 1916][4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Morus mongolica a été initialement décrite en 1873 par le botaniste français Édouard Bureau comme une variété de Morus alba sous le nom de « Morus alba var. mongolica » et publiée dans Prodromus systematis naturalis regni vegetabilis en 1873, puis reconnue en tant qu'espèce distincte par le botaniste autrichien Camillo Karl Schneider et publiée en 1916 dans Plantae Wilsonianae 3(2): 296 [31 Aug 1916].
 L'arbre avait été découvert en Chine par le père David en 1864 et introduit en Angleterre par Ernest Henry Wilson en 1907.
-Cette espèce se distingue de Morus alba par les feuilles à bord rudes et le style des fleurs femelles plus long, caractère qui la rapproche de Morus australis. Le fruit est décrit comme « insipide »[5].
-Synonymes
-Selon The Plant List            (30 juin 2019)[1] :
+Cette espèce se distingue de Morus alba par les feuilles à bord rudes et le style des fleurs femelles plus long, caractère qui la rapproche de Morus australis. Le fruit est décrit comme « insipide ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Morus_mongolica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Morus_mongolica</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (30 juin 2019) :
 Morus alba var. mongolica Bureau
-Morus alba Bureau[6]
+Morus alba Bureau
 Morus barkamensis S.S. Chang
 Morus deqinensis S.S. Chang
 Morus mongolica var. barkamensis (S.S. Chang) C.Y. Wu &amp; Z.Y. Cao
 Morus yunnanensis Koidz.
-Liste des variétés
-Selon Tropicos                                           (30 juin 2019)[7] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Morus_mongolica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Morus_mongolica</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (30 juin 2019) (Attention liste brute contenant possiblement des synonymes) :
 Morus mongolica var. barkamensis (S.S. Chang) C.Y. Wu &amp; Z.Y. Cao
 Morus mongolica var. diabolica Koidz.
 Morus mongolica var. hopeiensis S.S. Chang &amp; Y.P. Wu
